--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mokronos\code\nonlinearLSTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACEC630-2A5C-4769-AEB2-D2C987E2F383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DCAC21-35F8-4A56-BF31-C7CBE713FC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10500" yWindow="4860" windowWidth="21600" windowHeight="11385" xr2:uid="{54E0EE64-5DA5-47C7-BDA8-FBE366399D2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54E0EE64-5DA5-47C7-BDA8-FBE366399D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -108,22 +108,28 @@
     <t>LSTM, Write Evaluation, put figures in, check what to change in figures, create all chapter outlines and write rought summary for all of them</t>
   </si>
   <si>
-    <t>LSTM, Clean up evaluation/generate missing plots, identify what theory is needed to explain evaluation, write theory</t>
-  </si>
-  <si>
-    <t>LSTM, Write most of theory, LSTM, metrics/loss function</t>
-  </si>
-  <si>
     <t>LSTM, Write creation of datasets, odes, normalization</t>
   </si>
   <si>
     <t>LSTM, Write training theory, hyperparameter overview, hyperparameter search manually vs autotuner</t>
   </si>
   <si>
-    <t>LSTM, Write other work chapter, introduction</t>
-  </si>
-  <si>
     <t>LSTM, Clean up writing, check for things that need more work, make new plan for rest</t>
+  </si>
+  <si>
+    <t>LSTM, Clean up evaluation/generate missing plots, identify what methods are needed to explain evaluation, write methods</t>
+  </si>
+  <si>
+    <t>LSTM, Write most of methods, LSTM, metrics/loss function</t>
+  </si>
+  <si>
+    <t>LSTM, Write "other work" chapter, introduction</t>
+  </si>
+  <si>
+    <t>Abgabe fast fertig</t>
+  </si>
+  <si>
+    <t>Abgabe final</t>
   </si>
 </sst>
 </file>
@@ -476,16 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C820AA12-46EE-47CA-80CD-C145E0B71ADB}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="121.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,9 +645,6 @@
         <f t="array" ref="B13">_xlfn.SWITCH(WEEKDAY(A13,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
         <v>Wed</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -652,7 +655,7 @@
         <v>Thu</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
         <v>Fri</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
         <v>Sat</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -688,7 +691,7 @@
         <v>Sun</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>Mon</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,7 +715,7 @@
         <v>Tue</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,6 +738,9 @@
         <f t="array" ref="B21">_xlfn.SWITCH(WEEKDAY(A21,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
         <v>Thu</v>
       </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -788,6 +794,93 @@
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.SWITCH(WEEKDAY(A27,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
         <v>Wed</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28">_xlfn.SWITCH(WEEKDAY(A28,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B29" t="str" cm="1">
+        <f t="array" ref="B29">_xlfn.SWITCH(WEEKDAY(A29,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B30" t="str" cm="1">
+        <f t="array" ref="B30">_xlfn.SWITCH(WEEKDAY(A30,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31">_xlfn.SWITCH(WEEKDAY(A31,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32">_xlfn.SWITCH(WEEKDAY(A32,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B33" t="str" cm="1">
+        <f t="array" ref="B33">_xlfn.SWITCH(WEEKDAY(A33,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B34" t="str" cm="1">
+        <f t="array" ref="B34">_xlfn.SWITCH(WEEKDAY(A34,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B35" t="str" cm="1">
+        <f t="array" ref="B35">_xlfn.SWITCH(WEEKDAY(A35,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B36" t="str" cm="1">
+        <f t="array" ref="B36">_xlfn.SWITCH(WEEKDAY(A36,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\mokronos\code\nonlinearLSTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DCAC21-35F8-4A56-BF31-C7CBE713FC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F1A4F-7D87-49EA-BDAB-D44E98E1C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54E0EE64-5DA5-47C7-BDA8-FBE366399D2D}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Abgabe final</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Finish presentation and send for review</t>
+  </si>
+  <si>
+    <t>Adjust stuff till after christmas</t>
+  </si>
+  <si>
+    <t>Test presentation</t>
+  </si>
+  <si>
+    <t>Adjust depending on time limits</t>
   </si>
 </sst>
 </file>
@@ -482,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C820AA12-46EE-47CA-80CD-C145E0B71ADB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +898,420 @@
         <v>Fri</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B37" t="str" cm="1">
+        <f t="array" ref="B37">_xlfn.SWITCH(WEEKDAY(A37,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B38" t="str" cm="1">
+        <f t="array" ref="B38">_xlfn.SWITCH(WEEKDAY(A38,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B39" t="str" cm="1">
+        <f t="array" ref="B39">_xlfn.SWITCH(WEEKDAY(A39,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B40" t="str" cm="1">
+        <f t="array" ref="B40">_xlfn.SWITCH(WEEKDAY(A40,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B41" t="str" cm="1">
+        <f t="array" ref="B41">_xlfn.SWITCH(WEEKDAY(A41,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B42" t="str" cm="1">
+        <f t="array" ref="B42">_xlfn.SWITCH(WEEKDAY(A42,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B43" t="str" cm="1">
+        <f t="array" ref="B43">_xlfn.SWITCH(WEEKDAY(A43,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B44" t="str" cm="1">
+        <f t="array" ref="B44">_xlfn.SWITCH(WEEKDAY(A44,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B45" t="str" cm="1">
+        <f t="array" ref="B45">_xlfn.SWITCH(WEEKDAY(A45,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B46" t="str" cm="1">
+        <f t="array" ref="B46">_xlfn.SWITCH(WEEKDAY(A46,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B47" t="str" cm="1">
+        <f t="array" ref="B47">_xlfn.SWITCH(WEEKDAY(A47,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B48" t="str" cm="1">
+        <f t="array" ref="B48">_xlfn.SWITCH(WEEKDAY(A48,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" ref="B49">_xlfn.SWITCH(WEEKDAY(A49,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B50" t="str" cm="1">
+        <f t="array" ref="B50">_xlfn.SWITCH(WEEKDAY(A50,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B51" t="str" cm="1">
+        <f t="array" ref="B51">_xlfn.SWITCH(WEEKDAY(A51,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B52" t="str" cm="1">
+        <f t="array" ref="B52">_xlfn.SWITCH(WEEKDAY(A52,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B53" t="str" cm="1">
+        <f t="array" ref="B53">_xlfn.SWITCH(WEEKDAY(A53,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B54" t="str" cm="1">
+        <f t="array" ref="B54">_xlfn.SWITCH(WEEKDAY(A54,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B55" t="str" cm="1">
+        <f t="array" ref="B55">_xlfn.SWITCH(WEEKDAY(A55,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B56" t="str" cm="1">
+        <f t="array" ref="B56">_xlfn.SWITCH(WEEKDAY(A56,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B57" t="str" cm="1">
+        <f t="array" ref="B57">_xlfn.SWITCH(WEEKDAY(A57,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B58" t="str" cm="1">
+        <f t="array" ref="B58">_xlfn.SWITCH(WEEKDAY(A58,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B59" t="str" cm="1">
+        <f t="array" ref="B59">_xlfn.SWITCH(WEEKDAY(A59,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="C59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B60" t="str" cm="1">
+        <f t="array" ref="B60">_xlfn.SWITCH(WEEKDAY(A60,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B61" t="str" cm="1">
+        <f t="array" ref="B61">_xlfn.SWITCH(WEEKDAY(A61,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B62" t="str" cm="1">
+        <f t="array" ref="B62">_xlfn.SWITCH(WEEKDAY(A62,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B63" t="str" cm="1">
+        <f t="array" ref="B63">_xlfn.SWITCH(WEEKDAY(A63,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B64" t="str" cm="1">
+        <f t="array" ref="B64">_xlfn.SWITCH(WEEKDAY(A64,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B65" t="str" cm="1">
+        <f t="array" ref="B65">_xlfn.SWITCH(WEEKDAY(A65,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B66" t="str" cm="1">
+        <f t="array" ref="B66">_xlfn.SWITCH(WEEKDAY(A66,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B67" t="str" cm="1">
+        <f t="array" ref="B67">_xlfn.SWITCH(WEEKDAY(A67,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B68" t="str" cm="1">
+        <f t="array" ref="B68">_xlfn.SWITCH(WEEKDAY(A68,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Tue</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B69" t="str" cm="1">
+        <f t="array" ref="B69">_xlfn.SWITCH(WEEKDAY(A69,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B70" t="str" cm="1">
+        <f t="array" ref="B70">_xlfn.SWITCH(WEEKDAY(A70,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Thu</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B71" t="str" cm="1">
+        <f t="array" ref="B71">_xlfn.SWITCH(WEEKDAY(A71,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Fri</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B72" t="str" cm="1">
+        <f t="array" ref="B72">_xlfn.SWITCH(WEEKDAY(A72,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sat</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B73" t="str" cm="1">
+        <f t="array" ref="B73">_xlfn.SWITCH(WEEKDAY(A73,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B74" t="str" cm="1">
+        <f t="array" ref="B74">_xlfn.SWITCH(WEEKDAY(A74,1),1,"Sun",2,"Mon",3,"Tue",4,"Wed",5,"Thu",6,"Fri",7,"Sat")</f>
+        <v>Mon</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
